--- a/Backend/Assignment1.xlsx
+++ b/Backend/Assignment1.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Accounts" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Policies" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Claims" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="History" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3243,7 +3244,6 @@
           <t>XYZDWS</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>124</v>
       </c>
@@ -3309,8 +3309,6 @@
           <t>SR00754668</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>Paid</t>
@@ -4213,7 +4211,6 @@
           <t>SR01820148</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>300</v>
       </c>
@@ -4244,7 +4241,6 @@
           <t>SR01855040</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>1</v>
       </c>
@@ -9315,7 +9311,6 @@
           <t>SR04901201</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
         <v>2</v>
       </c>
@@ -9346,7 +9341,6 @@
           <t>SR04901215</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
       <c r="E178" t="n">
         <v>2</v>
       </c>
@@ -9377,7 +9371,6 @@
           <t>SR04901241</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
         <v>1</v>
       </c>
@@ -9408,7 +9401,6 @@
           <t>SR04901268</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
         <v>1</v>
       </c>
@@ -9439,7 +9431,6 @@
           <t>SR04901270</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
       <c r="E181" t="n">
         <v>1</v>
       </c>
@@ -9470,7 +9461,6 @@
           <t>SR04901274</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
       <c r="E182" t="n">
         <v>1</v>
       </c>
@@ -9501,7 +9491,6 @@
           <t>SR04901319</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
       <c r="E183" t="n">
         <v>100</v>
       </c>
@@ -9532,7 +9521,6 @@
           <t>SR04901321</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9551,6 @@
           <t>SR04901322</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
         <v>84</v>
       </c>
@@ -9594,7 +9581,6 @@
           <t>SR04901332</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
       <c r="E186" t="n">
         <v>200</v>
       </c>
@@ -9625,7 +9611,6 @@
           <t>SR04901363</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
         <v>1</v>
       </c>
@@ -9656,7 +9641,6 @@
           <t>SR04901375</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
         <v>12</v>
       </c>
@@ -9687,7 +9671,6 @@
           <t>SR04901415</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
         <v>1</v>
       </c>
@@ -9718,7 +9701,6 @@
           <t>SR04901477</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
       <c r="E190" t="n">
         <v>10</v>
       </c>
@@ -9749,7 +9731,6 @@
           <t>SR04917207</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
       <c r="E191" t="n">
         <v>100</v>
       </c>
@@ -9780,7 +9761,6 @@
           <t>SR04917278</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
         <v>20</v>
       </c>
@@ -9811,7 +9791,6 @@
           <t>SR05109547</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
         <v>2</v>
       </c>
@@ -9842,7 +9821,6 @@
           <t>SR05114553</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
         <v>2</v>
       </c>
@@ -9873,7 +9851,6 @@
           <t>SR05212053</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
         <v>2</v>
       </c>
@@ -9904,7 +9881,6 @@
           <t>SR05212134</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
         <v>2</v>
       </c>
@@ -9935,7 +9911,6 @@
           <t>SR05214929</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
       <c r="E197" t="n">
         <v>16</v>
       </c>
@@ -9966,7 +9941,6 @@
           <t>SR05218205</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
       <c r="E198" t="n">
         <v>2</v>
       </c>
@@ -9997,7 +9971,6 @@
           <t>SR05219337</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
       <c r="E199" t="n">
         <v>1</v>
       </c>
@@ -10028,7 +10001,6 @@
           <t>SR05220497</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
       <c r="E200" t="n">
         <v>10</v>
       </c>
@@ -10059,7 +10031,6 @@
           <t>SR05258403</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
         <v>10</v>
       </c>
@@ -10090,7 +10061,6 @@
           <t>SR05267644</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
       <c r="E202" t="n">
         <v>1500</v>
       </c>
@@ -10121,7 +10091,6 @@
           <t>SR05286186</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
       <c r="E203" t="n">
         <v>1</v>
       </c>
@@ -10152,7 +10121,6 @@
           <t>SR05317293</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
         <v>2</v>
       </c>
@@ -10183,7 +10151,6 @@
           <t>SR05373398</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
       <c r="E205" t="n">
         <v>2</v>
       </c>
@@ -10214,7 +10181,6 @@
           <t>SR05429695</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
         <v>2</v>
       </c>
@@ -10245,7 +10211,6 @@
           <t>SR05486838</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
       <c r="E207" t="n">
         <v>2</v>
       </c>
@@ -10276,7 +10241,6 @@
           <t>SR05486880</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
       <c r="E208" t="n">
         <v>2</v>
       </c>
@@ -10307,7 +10271,6 @@
           <t>SR05489414</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
         <v>2</v>
       </c>
@@ -10338,7 +10301,6 @@
           <t>SR05535572</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
       <c r="E210" t="n">
         <v>2</v>
       </c>
@@ -10369,7 +10331,6 @@
           <t>SR05539194</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
       <c r="E211" t="n">
         <v>2</v>
       </c>
@@ -10400,7 +10361,6 @@
           <t>SR05652820</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
       <c r="E212" t="n">
         <v>2</v>
       </c>
@@ -10431,7 +10391,6 @@
           <t>SR05778379</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
       <c r="E213" t="n">
         <v>2</v>
       </c>
@@ -10462,7 +10421,6 @@
           <t>SR05870583</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
       <c r="E214" t="n">
         <v>2</v>
       </c>
@@ -10493,7 +10451,6 @@
           <t>SR05985027</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
       <c r="E215" t="n">
         <v>2</v>
       </c>
@@ -10505,6 +10462,106 @@
       <c r="G215" t="inlineStr">
         <is>
           <t>001OA000002e5sgYAA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Operation</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>SheetName</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>RecordId</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-12-18T19:27:30.753934</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Accounts</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0012j00000GjoGnAAJ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'Name': 'John Doe', 'Age': 30, 'City': 'New York', 'State': 'NY', 'Pincode': 10001}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-18T19:28:19.050700</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Accounts</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'AccountId': '12345', 'Name': 'string', 'Age': 0, 'City': 'string', 'State': 'string', 'Pincode': 0}</t>
         </is>
       </c>
     </row>
